--- a/excel/inportdatauser.xlsx
+++ b/excel/inportdatauser.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
